--- a/clean-data/Whiskey_data/Whiskey_Advocate_All_scraped_Quartile.xlsx
+++ b/clean-data/Whiskey_data/Whiskey_Advocate_All_scraped_Quartile.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kurth\Bootcamp\Projects\Project3\project-3\clean-data\Whiskey_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{46BDF6F8-AA18-423A-8030-3EFAEB82488E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98D6295-2BC3-4BE9-BDC2-E51ABAC26D0E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quartile age and price" sheetId="3" r:id="rId1"/>
@@ -19,8 +19,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Age in Cast</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ &quot;years old&quot;"/>
   </numFmts>
@@ -870,11 +890,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,17 +903,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
